--- a/biology/Botanique/Byblidaceae/Byblidaceae.xlsx
+++ b/biology/Botanique/Byblidaceae/Byblidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Byblidaceae est constituée de plantes dicotylédones ; elle ne comprend que 3-7 espèces du genre Byblis.
 Ce sont des plantes herbacées  carnivores (à mécanisme passif) originaires d'Australie et  de Nouvelle-Guinée.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Byblis, dont le nom grec Βύβλης / Byblis est l'éponyme. 
-Dans  la mythologie grecque, Byblis est une nymphe  dont l'histoire a été racontée par le poète latin Ovide (43 av. J.-C. -  17 apr. J.-C.) dans son long poème les Métamorphoses[1].
+Dans  la mythologie grecque, Byblis est une nymphe  dont l'histoire a été racontée par le poète latin Ovide (43 av. J.-C. -  17 apr. J.-C.) dans son long poème les Métamorphoses.
 Nièce d'Apollon, Byblis tomba amoureuse de son frère jumeau lequel rejeta son amour. De désespoir, elle s’abandonna dans un flot de larmes et, avant de mourir, se transforma en source ou en fontaine.
 Les gouttelettes qui perlent sur les feuilles du  Byblis font référence aux larmes de la nymphe éconduite.
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 Jul 2010)[2], Angiosperm Phylogeny Website                        (6 Jul 2010)[3], NCBI  (6 Jul 2010)[4] et DELTA Angio           (6 Jul 2010)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 Jul 2010), Angiosperm Phylogeny Website                        (6 Jul 2010), NCBI  (6 Jul 2010) et DELTA Angio           (6 Jul 2010) :
 Byblis Salisb. (1808)</t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 Jul 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 Jul 2010) :
 genre Byblis Salisb. (1808)
 Byblis aquatica Lowrie &amp; Conran (1998)
 Byblis filifolia Planch., Ann. Sc. Nat. (1848)
@@ -588,7 +606,7 @@
 Byblis lamellata Conran &amp; Lowrie (2002)
 Byblis liniflora Salisb. (1808)
 Byblis rorida Lowrie &amp; Conran (1998)
-Selon NCBI  (6 Jul 2010)[4] :
+Selon NCBI  (6 Jul 2010) :
 genre Byblis
 Byblis aquatica
 Byblis filifolia
